--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Day_10_Assingment_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97742415-6B38-46AD-951F-338DFD73A8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE7C15B-276C-4496-8EFC-103F3EB73194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -163,13 +163,46 @@
   </si>
   <si>
     <t>Assignment_1</t>
+  </si>
+  <si>
+    <t>OutputWorkbookPath</t>
+  </si>
+  <si>
+    <t>Data/Output/Assignment1.xlsx</t>
+  </si>
+  <si>
+    <t>OutputSheetName</t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>BrowserPath</t>
+  </si>
+  <si>
+    <t>https://www.nseindia.com/</t>
+  </si>
+  <si>
+    <t>NSEBrowserPath</t>
+  </si>
+  <si>
+    <t>https://www.nseindia.com/get-quotes/equity?symbol=</t>
+  </si>
+  <si>
+    <t>MailCredentials</t>
+  </si>
+  <si>
+    <t>MailCredentails</t>
+  </si>
+  <si>
+    <t>ToMailAddress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -193,6 +226,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,10 +250,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -224,8 +264,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,7 +583,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -620,7 +662,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1624,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1806,10 +1855,38 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2779,6 +2856,10 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{1001B93F-5B22-469A-9688-EDA4F9592305}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{625C3645-7809-43FA-9657-1BA14E887335}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2787,7 +2868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2833,7 +2916,17 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Day_10_Assingment_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE7C15B-276C-4496-8EFC-103F3EB73194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9BEDE6-EFFC-4C5D-A608-9E0AB3D2B7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>ToMailAddress</t>
+  </si>
+  <si>
+    <t>OutputFile</t>
+  </si>
+  <si>
+    <t>NSEData</t>
+  </si>
+  <si>
+    <t>BrowserURL</t>
+  </si>
+  <si>
+    <t>CC_MailAddress</t>
   </si>
 </sst>
 </file>
@@ -583,7 +595,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -670,10 +682,38 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Day_10_Assingment_2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dc8928f65293786/Documents/UiPath/Rencita_Day_3/Rencita_Day_10_Assignment_2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9BEDE6-EFFC-4C5D-A608-9E0AB3D2B7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3A9BEDE6-EFFC-4C5D-A608-9E0AB3D2B7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6EAD0A0-3FA6-4255-B169-989DA1FB19FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6132" yWindow="1944" windowWidth="14304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>CC_MailAddress</t>
+  </si>
+  <si>
+    <t>AppendtoUrl</t>
+  </si>
+  <si>
+    <t>/get-quotes/equity?symbol=</t>
   </si>
 </sst>
 </file>
@@ -296,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -336,7 +342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -442,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,15 +601,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -651,7 +657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -663,7 +669,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -714,7 +720,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1717,12 +1730,12 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1759,7 +1772,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1770,7 +1783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1884,7 +1897,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2912,12 +2925,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dc8928f65293786/Documents/UiPath/Rencita_Day_3/Rencita_Day_10_Assignment_2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Day_10_Assignment_2_copy\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3A9BEDE6-EFFC-4C5D-A608-9E0AB3D2B7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6EAD0A0-3FA6-4255-B169-989DA1FB19FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE6FBF2-AEFE-4185-B153-833E71A3FB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6132" yWindow="1944" windowWidth="14304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Error_Action" sheetId="4" r:id="rId3"/>
+    <sheet name="Assets" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -214,6 +215,18 @@
   </si>
   <si>
     <t>/get-quotes/equity?symbol=</t>
+  </si>
+  <si>
+    <t>ProcessScreenshot</t>
+  </si>
+  <si>
+    <t>Exception_</t>
+  </si>
+  <si>
+    <t>PageDidNotLoadError</t>
+  </si>
+  <si>
+    <t>{PageName} did not loaded</t>
   </si>
 </sst>
 </file>
@@ -302,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -448,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,15 +614,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -657,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -669,7 +682,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -712,14 +725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
         <v>61</v>
@@ -1726,16 +1732,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1772,7 +1778,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1897,7 +1903,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1941,7 +1947,14 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2918,19 +2931,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6BC1B1-7F06-4F74-8292-B4B63108A7E6}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2980,7 +3032,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
